--- a/biology/Neurosciences/Système_sensoriel/Système_sensoriel.xlsx
+++ b/biology/Neurosciences/Système_sensoriel/Système_sensoriel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_sensoriel</t>
+          <t>Système_sensoriel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un système sensoriel est une partie du système nerveux responsable de la sensation. Il regroupe les récepteurs sensoriels, les voies nerveuses, et les parties du cerveau responsables du traitement de l'information sensorielle. 
 L'ensemble des systèmes sensoriels se divisent en sensibilité générale ou somesthésie et en sens dits spécifiques : la vision, l'odorat, le goût, l'ouïe et le toucher.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_sensoriel</t>
+          <t>Système_sensoriel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,15 +527,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traitement sensoriel
-L'expression Traitement sensoriel a plusieurs sens dans la littérature scientifique[1]. Elle peut décrire, selon le contexte : 
-l'acuité d'un sens (ex : acuité visuelle, acuité auditive), correspondant à un spectre qui s'étend de l'absence totale de perception (ex : surdité totale) à une herpersensibilité, en passant par l'hyposensibilité ou une perception jugée "dans la norme"[1] ;
-les modes et mécanismes de traitement, dans un système sensoriel (ex : trouble de la vision, trouble de l'audition)[1] ;
-la réponse neurophysiologique à divers stimuli (ce qui est perçu comme une sensations). C'est une notion notamment utilisé par l'industrie alimentaire quand elle évoque le « traitement sensoriel »[1].
-Codage
-Les systèmes sensoriels encodent différents aspects d'un stimulus sur la base de ses propriétés physiques qui dépendent de la modalité sensorielle considérée et du profil sensoriel. Ainsi un même stimulus peut être capté par différents systèmes sensoriels. Par exemple, le Soleil émet à la fois de la lumière perçue par les yeux et de la chaleur perçue par les thermorécepteurs de la somesthésie. Mais même au sein d'un système sensoriel donné différentes dimensions peuvent être traitées séparément. Ainsi, dans le système auditif, la  position spatiale d'une source sonore est déterminée à la fois par la détection du délai interaural, c'est-à-dire la différence de temps entre l'arrivée du son à une oreille puis à l'autre, mais la localisation sonore peut aussi utiliser des indices monoauraux comme l'atténuation du son par le pavillon auriculaire. Ces deux types d'indices sont traités de façon relativement séparés au niveau des voies auditives jusqu'au aires auditives primaires du cerveau.
-Modalité
-Il y a diverses modalités (ou types) de stimuli :
+          <t>Traitement sensoriel</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'expression Traitement sensoriel a plusieurs sens dans la littérature scientifique. Elle peut décrire, selon le contexte : 
+l'acuité d'un sens (ex : acuité visuelle, acuité auditive), correspondant à un spectre qui s'étend de l'absence totale de perception (ex : surdité totale) à une herpersensibilité, en passant par l'hyposensibilité ou une perception jugée "dans la norme" ;
+les modes et mécanismes de traitement, dans un système sensoriel (ex : trouble de la vision, trouble de l'audition) ;
+la réponse neurophysiologique à divers stimuli (ce qui est perçu comme une sensations). C'est une notion notamment utilisé par l'industrie alimentaire quand elle évoque le « traitement sensoriel ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Système_sensoriel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_sensoriel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Codage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les systèmes sensoriels encodent différents aspects d'un stimulus sur la base de ses propriétés physiques qui dépendent de la modalité sensorielle considérée et du profil sensoriel. Ainsi un même stimulus peut être capté par différents systèmes sensoriels. Par exemple, le Soleil émet à la fois de la lumière perçue par les yeux et de la chaleur perçue par les thermorécepteurs de la somesthésie. Mais même au sein d'un système sensoriel donné différentes dimensions peuvent être traitées séparément. Ainsi, dans le système auditif, la  position spatiale d'une source sonore est déterminée à la fois par la détection du délai interaural, c'est-à-dire la différence de temps entre l'arrivée du son à une oreille puis à l'autre, mais la localisation sonore peut aussi utiliser des indices monoauraux comme l'atténuation du son par le pavillon auriculaire. Ces deux types d'indices sont traités de façon relativement séparés au niveau des voies auditives jusqu'au aires auditives primaires du cerveau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Système_sensoriel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_sensoriel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Modalité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a diverses modalités (ou types) de stimuli :
 lumière ;
 son ;
 pression, vibration ;
@@ -535,31 +621,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Syst%C3%A8me_sensoriel</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Système_sensoriel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_sensoriel</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Système sensoriel humain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon le stimulus auquel ils réagissent, les récepteurs sensoriels humains sont :
 Chimiorécepteur
